--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Planning</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Demo/Presentaties</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -768,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1052,7 +1055,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" ht="18">
+    <row r="17" spans="1:14" ht="18">
       <c r="A17" s="20"/>
       <c r="B17" s="16"/>
       <c r="C17" s="8"/>
@@ -1066,7 +1069,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="18">
+    <row r="18" spans="1:14" ht="18">
       <c r="A18" s="20"/>
       <c r="B18" s="16"/>
       <c r="C18" s="8"/>
@@ -1080,7 +1083,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" ht="18">
+    <row r="19" spans="1:14" ht="18">
       <c r="A19" s="20"/>
       <c r="B19" s="16"/>
       <c r="C19" s="8"/>
@@ -1094,7 +1097,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="18">
+    <row r="20" spans="1:14" ht="18">
       <c r="A20" s="20"/>
       <c r="B20" s="16"/>
       <c r="C20" s="8"/>
@@ -1107,8 +1110,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" ht="18">
+      <c r="N20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18">
       <c r="A21" s="20"/>
       <c r="B21" s="16"/>
       <c r="C21" s="8"/>
@@ -1122,7 +1128,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="18">
+    <row r="22" spans="1:14" ht="18">
       <c r="A22" s="20"/>
       <c r="B22" s="16"/>
       <c r="C22" s="8"/>
@@ -1136,7 +1142,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" ht="18">
+    <row r="23" spans="1:14" ht="18">
       <c r="A23" s="20"/>
       <c r="B23" s="16"/>
       <c r="C23" s="8"/>
@@ -1150,7 +1156,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="18">
+    <row r="24" spans="1:14" ht="18">
       <c r="A24" s="20"/>
       <c r="B24" s="16"/>
       <c r="C24" s="8"/>
@@ -1164,7 +1170,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" ht="18">
+    <row r="25" spans="1:14" ht="18">
       <c r="A25" s="20"/>
       <c r="B25" s="16"/>
       <c r="C25" s="8"/>
@@ -1178,7 +1184,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" ht="18">
+    <row r="26" spans="1:14" ht="18">
       <c r="A26" s="20"/>
       <c r="B26" s="16"/>
       <c r="C26" s="8"/>
@@ -1192,7 +1198,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" ht="18">
+    <row r="27" spans="1:14" ht="18">
       <c r="A27" s="20"/>
       <c r="B27" s="16"/>
       <c r="C27" s="8"/>
@@ -1206,7 +1212,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" ht="18">
+    <row r="28" spans="1:14" ht="18">
       <c r="A28" s="20"/>
       <c r="B28" s="16"/>
       <c r="C28" s="8"/>
@@ -1220,7 +1226,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" ht="18">
+    <row r="29" spans="1:14" ht="18">
       <c r="A29" s="20"/>
       <c r="B29" s="16"/>
       <c r="C29" s="8"/>
@@ -1234,7 +1240,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" ht="18">
+    <row r="30" spans="1:14" ht="18">
       <c r="A30" s="20"/>
       <c r="B30" s="16"/>
       <c r="C30" s="8"/>
@@ -1248,7 +1254,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" ht="18">
+    <row r="31" spans="1:14" ht="18">
       <c r="A31" s="20"/>
       <c r="B31" s="16"/>
       <c r="C31" s="8"/>
@@ -1262,7 +1268,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" ht="18">
+    <row r="32" spans="1:14" ht="18">
       <c r="A32" s="20"/>
       <c r="B32" s="16"/>
       <c r="C32" s="8"/>
